--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calr-Mtnr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Calr-Mtnr1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>70.597374</v>
+        <v>63.18739966666666</v>
       </c>
       <c r="H2">
-        <v>211.792122</v>
+        <v>189.562199</v>
       </c>
       <c r="I2">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="J2">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>5.869865726145999</v>
+        <v>5.25375847021811</v>
       </c>
       <c r="R2">
-        <v>52.828791535314</v>
+        <v>47.283826231963</v>
       </c>
       <c r="S2">
-        <v>0.1038461413627678</v>
+        <v>0.09596345243430386</v>
       </c>
       <c r="T2">
-        <v>0.1079321580975798</v>
+        <v>0.09988075390087989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>605.249321</v>
       </c>
       <c r="I3">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="J3">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -638,10 +638,10 @@
         <v>150.971574882277</v>
       </c>
       <c r="S3">
-        <v>0.2967664989365622</v>
+        <v>0.3063997713314046</v>
       </c>
       <c r="T3">
-        <v>0.3084433206756614</v>
+        <v>0.3189072441572365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>140.4664383333333</v>
+        <v>170.2928416666667</v>
       </c>
       <c r="H4">
-        <v>421.399315</v>
+        <v>510.878525</v>
       </c>
       <c r="I4">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="J4">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>11.67917565951722</v>
+        <v>14.15911184893611</v>
       </c>
       <c r="R4">
-        <v>105.112580935655</v>
+        <v>127.432006640425</v>
       </c>
       <c r="S4">
-        <v>0.2066209659850499</v>
+        <v>0.2586257560429799</v>
       </c>
       <c r="T4">
-        <v>0.2147508465342814</v>
+        <v>0.2691830570543736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.2091405</v>
+        <v>77.473122</v>
       </c>
       <c r="H5">
-        <v>154.418281</v>
+        <v>154.946244</v>
       </c>
       <c r="I5">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="J5">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>6.419605459632833</v>
+        <v>6.441554377438</v>
       </c>
       <c r="R5">
-        <v>38.517632757797</v>
+        <v>38.649326264628</v>
       </c>
       <c r="S5">
-        <v>0.1135718067765637</v>
+        <v>0.1176593481802354</v>
       </c>
       <c r="T5">
-        <v>0.07869366509321106</v>
+        <v>0.08164152846121862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>189.8039196666666</v>
+        <v>145.7496183333334</v>
       </c>
       <c r="H6">
-        <v>569.411759</v>
+        <v>437.248855</v>
       </c>
       <c r="I6">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="J6">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>15.78137343663144</v>
+        <v>12.11844918273722</v>
       </c>
       <c r="R6">
-        <v>142.032360929683</v>
+        <v>109.066042644635</v>
       </c>
       <c r="S6">
-        <v>0.2791945869390566</v>
+        <v>0.2213516720110761</v>
       </c>
       <c r="T6">
-        <v>0.2901800095992663</v>
+        <v>0.2303874164262914</v>
       </c>
     </row>
   </sheetData>
